--- a/projects/projects_compact.xlsx
+++ b/projects/projects_compact.xlsx
@@ -16,6 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="203">
   <si>
+    <t>inn</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
     <t>year</t>
   </si>
   <si>
@@ -28,12 +34,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>inn</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
@@ -85,6 +85,87 @@
     <t>cash_interest</t>
   </si>
   <si>
+    <t>AGRO</t>
+  </si>
+  <si>
+    <t>REAL_ESTATE</t>
+  </si>
+  <si>
+    <t>WOOD_PRODUCTS</t>
+  </si>
+  <si>
+    <t>METALS_AND_MINING</t>
+  </si>
+  <si>
+    <t>CHEMICHAL</t>
+  </si>
+  <si>
+    <t>CONSTR_MATERIALS</t>
+  </si>
+  <si>
+    <t>PULP_AND_PAPER</t>
+  </si>
+  <si>
+    <t>PHARMA</t>
+  </si>
+  <si>
+    <t>MACHINERY</t>
+  </si>
+  <si>
+    <t>EXPORT</t>
+  </si>
+  <si>
+    <t>AUTOMOTIVE</t>
+  </si>
+  <si>
+    <t>OTHER_PROJECTS</t>
+  </si>
+  <si>
+    <t>MICROELECTRONICS</t>
+  </si>
+  <si>
+    <t>POWER_SECTOR</t>
+  </si>
+  <si>
+    <t>LOCAL_INFRA</t>
+  </si>
+  <si>
+    <t>WATER_AND_SEWAGE</t>
+  </si>
+  <si>
+    <t>SOCHI_TOURISM</t>
+  </si>
+  <si>
+    <t>TOURISM</t>
+  </si>
+  <si>
+    <t>DEFENSE</t>
+  </si>
+  <si>
+    <t>SOCHI_SPORT</t>
+  </si>
+  <si>
+    <t>TRANSPORT_INFRA_OTHER</t>
+  </si>
+  <si>
+    <t>AIRPORT</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>AEROSPACE</t>
+  </si>
+  <si>
+    <t>AUTOROAD</t>
+  </si>
+  <si>
+    <t>INFRA_OTHER</t>
+  </si>
+  <si>
+    <t>MED_SERVICES</t>
+  </si>
+  <si>
     <t>Евродон-Юг</t>
   </si>
   <si>
@@ -542,87 +623,6 @@
   </si>
   <si>
     <t>ПРОФЕССИОНАЛЬНЫЙ ФУТБОЛЬНЫЙ КЛУБ ЦСКА</t>
-  </si>
-  <si>
-    <t>AGRO</t>
-  </si>
-  <si>
-    <t>REAL_ESTATE</t>
-  </si>
-  <si>
-    <t>WOOD_PRODUCTS</t>
-  </si>
-  <si>
-    <t>METALS_AND_MINING</t>
-  </si>
-  <si>
-    <t>CHEMICHAL</t>
-  </si>
-  <si>
-    <t>CONSTR_MATERIALS</t>
-  </si>
-  <si>
-    <t>PULP_AND_PAPER</t>
-  </si>
-  <si>
-    <t>PHARMA</t>
-  </si>
-  <si>
-    <t>MACHINERY</t>
-  </si>
-  <si>
-    <t>EXPORT</t>
-  </si>
-  <si>
-    <t>AUTOMOTIVE</t>
-  </si>
-  <si>
-    <t>OTHER_PROJECTS</t>
-  </si>
-  <si>
-    <t>MICROELECTRONICS</t>
-  </si>
-  <si>
-    <t>POWER_SECTOR</t>
-  </si>
-  <si>
-    <t>LOCAL_INFRA</t>
-  </si>
-  <si>
-    <t>WATER_AND_SEWAGE</t>
-  </si>
-  <si>
-    <t>SOCHI_TOURISM</t>
-  </si>
-  <si>
-    <t>TOURISM</t>
-  </si>
-  <si>
-    <t>DEFENSE</t>
-  </si>
-  <si>
-    <t>SOCHI_SPORT</t>
-  </si>
-  <si>
-    <t>TRANSPORT_INFRA_OTHER</t>
-  </si>
-  <si>
-    <t>AIRPORT</t>
-  </si>
-  <si>
-    <t>ICT</t>
-  </si>
-  <si>
-    <t>AEROSPACE</t>
-  </si>
-  <si>
-    <t>AUTOROAD</t>
-  </si>
-  <si>
-    <t>INFRA_OTHER</t>
-  </si>
-  <si>
-    <t>MED_SERVICES</t>
   </si>
 </sst>
 </file>
@@ -1059,22 +1059,22 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <v>2013</v>
-      </c>
-      <c r="B2">
+        <v>6125028404</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>2013</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2">
-        <v>6125028404</v>
-      </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -1130,22 +1130,22 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3">
-        <v>2013</v>
-      </c>
-      <c r="B3">
+        <v>6906011193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>2013</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>69</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>6906011193</v>
-      </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1201,22 +1201,22 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4">
-        <v>2013</v>
-      </c>
-      <c r="B4">
+        <v>214005782</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>2013</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>214005782</v>
-      </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <v>2.4</v>
@@ -1272,22 +1272,22 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
+        <v>6123015784</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>2013</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>61</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>6123015784</v>
-      </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="G5">
         <v>1.4</v>
@@ -1343,22 +1343,22 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6">
-        <v>2013</v>
-      </c>
-      <c r="B6">
+        <v>2011002420</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>2013</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>2011002420</v>
-      </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -1414,22 +1414,22 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7">
-        <v>2013</v>
-      </c>
-      <c r="B7">
+        <v>7116145872</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>2013</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>71</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7">
-        <v>7116145872</v>
-      </c>
       <c r="F7" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <v>1.1</v>
@@ -1485,22 +1485,22 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8">
-        <v>2013</v>
-      </c>
-      <c r="B8">
+        <v>5040066582</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>2013</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8">
-        <v>5040066582</v>
-      </c>
       <c r="F8" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="G8">
         <v>3.9</v>
@@ -1556,22 +1556,22 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9">
-        <v>2013</v>
-      </c>
-      <c r="B9">
+        <v>7425756540</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>2013</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>74</v>
       </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>7425756540</v>
-      </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="G9">
         <v>0.8</v>
@@ -1627,22 +1627,22 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10">
-        <v>2013</v>
-      </c>
-      <c r="B10">
+        <v>5040058775</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>2013</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>50</v>
       </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10">
-        <v>5040058775</v>
-      </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="G10">
         <v>0.2</v>
@@ -1698,22 +1698,22 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11">
-        <v>2013</v>
-      </c>
-      <c r="B11">
+        <v>5307006883</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>2013</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11">
-        <v>5307006883</v>
-      </c>
       <c r="F11" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1769,22 +1769,22 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12">
-        <v>2013</v>
-      </c>
-      <c r="B12">
+        <v>3904612524</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>2013</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12">
-        <v>3904612524</v>
-      </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="G12">
         <v>3.1</v>
@@ -1840,22 +1840,22 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13">
-        <v>2013</v>
-      </c>
-      <c r="B13">
+        <v>6375004727</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>2013</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>63</v>
       </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13">
-        <v>6375004727</v>
-      </c>
       <c r="F13" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>0.2</v>
@@ -1911,22 +1911,22 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14">
-        <v>2013</v>
-      </c>
-      <c r="B14">
+        <v>3252005997</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>2013</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14">
-        <v>3252005997</v>
-      </c>
       <c r="F14" t="s">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>9.4</v>
@@ -1982,22 +1982,22 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15">
-        <v>2013</v>
-      </c>
-      <c r="B15">
+        <v>5501092795</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>2013</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15">
-        <v>5501092795</v>
-      </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>5.5</v>
@@ -2053,22 +2053,22 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16">
-        <v>2013</v>
-      </c>
-      <c r="B16">
+        <v>6135006840</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>2013</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>61</v>
       </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16">
-        <v>6135006840</v>
-      </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="G16">
         <v>1.3</v>
@@ -2124,22 +2124,22 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17">
-        <v>2013</v>
-      </c>
-      <c r="B17">
+        <v>2342016712</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>2013</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17">
-        <v>2342016712</v>
-      </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="G17">
         <v>1.3</v>
@@ -2195,22 +2195,22 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18">
-        <v>2013</v>
-      </c>
-      <c r="B18">
+        <v>7614005035</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>2013</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>76</v>
       </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18">
-        <v>7614005035</v>
-      </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="G18">
         <v>3.4</v>
@@ -2266,22 +2266,22 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19">
-        <v>2013</v>
-      </c>
-      <c r="B19">
+        <v>2277011020</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>2013</v>
+      </c>
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>22</v>
       </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>2277011020</v>
-      </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="G19">
         <v>4.6</v>
@@ -2337,22 +2337,22 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20">
-        <v>2013</v>
-      </c>
-      <c r="B20">
+        <v>5604009492</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>2013</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>56</v>
       </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20">
-        <v>5604009492</v>
-      </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="G20">
         <v>1.3</v>
@@ -2408,22 +2408,22 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21">
-        <v>2013</v>
-      </c>
-      <c r="B21">
+        <v>6125021399</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>2013</v>
+      </c>
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>61</v>
       </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21">
-        <v>6125021399</v>
-      </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="G21">
         <v>3.1</v>
@@ -2479,22 +2479,22 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22">
-        <v>2013</v>
-      </c>
-      <c r="B22">
+        <v>2460205089</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>2013</v>
+      </c>
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>24</v>
       </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22">
-        <v>2460205089</v>
-      </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="G22">
         <v>11.5</v>
@@ -2550,22 +2550,22 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23">
-        <v>2013</v>
-      </c>
-      <c r="B23">
+        <v>2723127073</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>2013</v>
+      </c>
+      <c r="D23">
         <v>2</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23">
-        <v>2723127073</v>
-      </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="G23">
         <v>0.2</v>
@@ -2621,22 +2621,22 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24">
-        <v>2013</v>
-      </c>
-      <c r="B24">
+        <v>2709001880</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>2013</v>
+      </c>
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24">
-        <v>2709001880</v>
-      </c>
       <c r="F24" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="G24">
         <v>7.9</v>
@@ -2692,22 +2692,22 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25">
-        <v>2013</v>
-      </c>
-      <c r="B25">
+        <v>1434045743</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>2013</v>
+      </c>
+      <c r="D25">
         <v>10</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>14</v>
       </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25">
-        <v>1434045743</v>
-      </c>
       <c r="F25" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2763,22 +2763,22 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26">
-        <v>2013</v>
-      </c>
-      <c r="B26">
+        <v>8300005580</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>2013</v>
+      </c>
+      <c r="D26">
         <v>11</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>83</v>
       </c>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26">
-        <v>8300005580</v>
-      </c>
       <c r="F26" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="G26">
         <v>2.7</v>
@@ -2834,22 +2834,22 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27">
-        <v>2013</v>
-      </c>
-      <c r="B27">
+        <v>4214018010</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>2013</v>
+      </c>
+      <c r="D27">
         <v>13</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>42</v>
       </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27">
-        <v>4214018010</v>
-      </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="G27">
         <v>11.3</v>
@@ -2905,22 +2905,22 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28">
-        <v>2013</v>
-      </c>
-      <c r="B28">
+        <v>1627005779</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>2013</v>
+      </c>
+      <c r="D28">
         <v>14</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>16</v>
       </c>
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28">
-        <v>1627005779</v>
-      </c>
       <c r="F28" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="G28">
         <v>35.9</v>
@@ -2976,22 +2976,22 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29">
-        <v>2013</v>
-      </c>
-      <c r="B29">
+        <v>4713008017</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>2013</v>
+      </c>
+      <c r="D29">
         <v>14</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>47</v>
       </c>
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29">
-        <v>4713008017</v>
-      </c>
       <c r="F29" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="G29">
         <v>15.9</v>
@@ -3047,22 +3047,22 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30">
-        <v>2013</v>
-      </c>
-      <c r="B30">
+        <v>5616009708</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>2013</v>
+      </c>
+      <c r="D30">
         <v>15</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>56</v>
       </c>
-      <c r="D30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30">
-        <v>5616009708</v>
-      </c>
       <c r="F30" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="G30">
         <v>0.3</v>
@@ -3118,22 +3118,22 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31">
-        <v>2013</v>
-      </c>
-      <c r="B31">
+        <v>7801499923</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>2013</v>
+      </c>
+      <c r="D31">
         <v>15</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>78</v>
       </c>
-      <c r="D31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31">
-        <v>7801499923</v>
-      </c>
       <c r="F31" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="G31">
         <v>2.6</v>
@@ -3189,22 +3189,22 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32">
-        <v>2013</v>
-      </c>
-      <c r="B32">
+        <v>2460222454</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>2013</v>
+      </c>
+      <c r="D32">
         <v>20</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>24</v>
       </c>
-      <c r="D32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32">
-        <v>2460222454</v>
-      </c>
       <c r="F32" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="G32">
         <v>1.3</v>
@@ -3260,22 +3260,22 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33">
-        <v>2013</v>
-      </c>
-      <c r="B33">
+        <v>2325014338</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>2013</v>
+      </c>
+      <c r="D33">
         <v>20</v>
       </c>
-      <c r="C33">
+      <c r="E33">
         <v>23</v>
       </c>
-      <c r="D33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33">
-        <v>2325014338</v>
-      </c>
       <c r="F33" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="G33">
         <v>3.7</v>
@@ -3331,22 +3331,22 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34">
-        <v>2013</v>
-      </c>
-      <c r="B34">
+        <v>2706021831</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>2013</v>
+      </c>
+      <c r="D34">
         <v>20</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>27</v>
       </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34">
-        <v>2706021831</v>
-      </c>
       <c r="F34" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="G34">
         <v>0.1</v>
@@ -3402,22 +3402,22 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35">
-        <v>2013</v>
-      </c>
-      <c r="B35">
+        <v>2721162072</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>2013</v>
+      </c>
+      <c r="D35">
         <v>20</v>
       </c>
-      <c r="C35">
+      <c r="E35">
         <v>27</v>
       </c>
-      <c r="D35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35">
-        <v>2721162072</v>
-      </c>
       <c r="F35" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="G35">
         <v>3.5</v>
@@ -3473,22 +3473,22 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36">
-        <v>2013</v>
-      </c>
-      <c r="B36">
+        <v>7840322535</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <v>2013</v>
+      </c>
+      <c r="D36">
         <v>20</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <v>78</v>
       </c>
-      <c r="D36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36">
-        <v>7840322535</v>
-      </c>
       <c r="F36" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="G36">
         <v>4.2</v>
@@ -3544,22 +3544,22 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37">
-        <v>2013</v>
-      </c>
-      <c r="B37">
+        <v>3837049102</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <v>2013</v>
+      </c>
+      <c r="D37">
         <v>21</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <v>38</v>
       </c>
-      <c r="D37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37">
-        <v>3837049102</v>
-      </c>
       <c r="F37" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="G37">
         <v>0.6</v>
@@ -3615,22 +3615,22 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38">
-        <v>2013</v>
-      </c>
-      <c r="B38">
+        <v>5030062677</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>2013</v>
+      </c>
+      <c r="D38">
         <v>24</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>50</v>
       </c>
-      <c r="D38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38">
-        <v>5030062677</v>
-      </c>
       <c r="F38" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="G38">
         <v>0.3</v>
@@ -3686,22 +3686,22 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39">
-        <v>2013</v>
-      </c>
-      <c r="B39">
+        <v>4807013380</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>2013</v>
+      </c>
+      <c r="D39">
         <v>24</v>
       </c>
-      <c r="C39">
+      <c r="E39">
         <v>48</v>
       </c>
-      <c r="D39" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39">
-        <v>4807013380</v>
-      </c>
       <c r="F39" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="G39">
         <v>3.2</v>
@@ -3757,22 +3757,22 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40">
-        <v>2013</v>
-      </c>
-      <c r="B40">
+        <v>7206032626</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>2013</v>
+      </c>
+      <c r="D40">
         <v>24</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>72</v>
       </c>
-      <c r="D40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40">
-        <v>7206032626</v>
-      </c>
       <c r="F40" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="G40">
         <v>62</v>
@@ -3828,22 +3828,22 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41">
-        <v>2013</v>
-      </c>
-      <c r="B41">
+        <v>1659032038</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>2013</v>
+      </c>
+      <c r="D41">
         <v>24</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>16</v>
       </c>
-      <c r="D41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41">
-        <v>1659032038</v>
-      </c>
       <c r="F41" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3899,22 +3899,22 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42">
-        <v>2013</v>
-      </c>
-      <c r="B42">
+        <v>5501085734</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <v>2013</v>
+      </c>
+      <c r="D42">
         <v>24</v>
       </c>
-      <c r="C42">
+      <c r="E42">
         <v>55</v>
       </c>
-      <c r="D42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42">
-        <v>5501085734</v>
-      </c>
       <c r="F42" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G42">
         <v>11.1</v>
@@ -3970,22 +3970,22 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43">
-        <v>2013</v>
-      </c>
-      <c r="B43">
+        <v>3327823181</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43">
+        <v>2013</v>
+      </c>
+      <c r="D43">
         <v>26</v>
       </c>
-      <c r="C43">
+      <c r="E43">
         <v>33</v>
       </c>
-      <c r="D43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43">
-        <v>3327823181</v>
-      </c>
       <c r="F43" t="s">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="G43">
         <v>3.8</v>
@@ -4041,22 +4041,22 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44">
-        <v>2013</v>
-      </c>
-      <c r="B44">
+        <v>522016027</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44">
+        <v>2013</v>
+      </c>
+      <c r="D44">
         <v>26</v>
       </c>
-      <c r="C44">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="D44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44">
-        <v>522016027</v>
-      </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="G44">
         <v>8.8</v>
@@ -4112,22 +4112,22 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45">
-        <v>2013</v>
-      </c>
-      <c r="B45">
+        <v>710005596</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45">
+        <v>2013</v>
+      </c>
+      <c r="D45">
         <v>26</v>
       </c>
-      <c r="C45">
+      <c r="E45">
         <v>7</v>
       </c>
-      <c r="D45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45">
-        <v>710005596</v>
-      </c>
       <c r="F45" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="G45">
         <v>0.7</v>
@@ -4183,22 +4183,22 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46">
-        <v>2013</v>
-      </c>
-      <c r="B46">
+        <v>4027077632</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46">
+        <v>2013</v>
+      </c>
+      <c r="D46">
         <v>26</v>
       </c>
-      <c r="C46">
+      <c r="E46">
         <v>40</v>
       </c>
-      <c r="D46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46">
-        <v>4027077632</v>
-      </c>
       <c r="F46" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="G46">
         <v>16.8</v>
@@ -4254,22 +4254,22 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47">
-        <v>2013</v>
-      </c>
-      <c r="B47">
+        <v>2617013243</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47">
+        <v>2013</v>
+      </c>
+      <c r="D47">
         <v>26</v>
       </c>
-      <c r="C47">
+      <c r="E47">
         <v>26</v>
       </c>
-      <c r="D47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47">
-        <v>2617013243</v>
-      </c>
       <c r="F47" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="G47">
         <v>2.2</v>
@@ -4325,22 +4325,22 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48">
-        <v>2013</v>
-      </c>
-      <c r="B48">
+        <v>5402480282</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48">
+        <v>2013</v>
+      </c>
+      <c r="D48">
         <v>26</v>
       </c>
-      <c r="C48">
+      <c r="E48">
         <v>54</v>
       </c>
-      <c r="D48" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48">
-        <v>5402480282</v>
-      </c>
       <c r="F48" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="G48">
         <v>2.9</v>
@@ -4396,22 +4396,22 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49">
-        <v>2013</v>
-      </c>
-      <c r="B49">
+        <v>6432005430</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49">
+        <v>2013</v>
+      </c>
+      <c r="D49">
         <v>26</v>
       </c>
-      <c r="C49">
+      <c r="E49">
         <v>64</v>
       </c>
-      <c r="D49" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49">
-        <v>6432005430</v>
-      </c>
       <c r="F49" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="G49">
         <v>1.8</v>
@@ -4467,22 +4467,22 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50">
-        <v>2013</v>
-      </c>
-      <c r="B50">
+        <v>1216015989</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50">
+        <v>2013</v>
+      </c>
+      <c r="D50">
         <v>26</v>
       </c>
-      <c r="C50">
+      <c r="E50">
         <v>12</v>
       </c>
-      <c r="D50" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50">
-        <v>1216015989</v>
-      </c>
       <c r="F50" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="G50">
         <v>1.7</v>
@@ -4538,22 +4538,22 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51">
-        <v>2013</v>
-      </c>
-      <c r="B51">
+        <v>3663075863</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51">
+        <v>2013</v>
+      </c>
+      <c r="D51">
         <v>27</v>
       </c>
-      <c r="C51">
+      <c r="E51">
         <v>36</v>
       </c>
-      <c r="D51" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51">
-        <v>3663075863</v>
-      </c>
       <c r="F51" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="G51">
         <v>3.8</v>
@@ -4609,22 +4609,22 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52">
-        <v>2013</v>
-      </c>
-      <c r="B52">
+        <v>1327000226</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52">
+        <v>2013</v>
+      </c>
+      <c r="D52">
         <v>27</v>
       </c>
-      <c r="C52">
+      <c r="E52">
         <v>13</v>
       </c>
-      <c r="D52" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52">
-        <v>1327000226</v>
-      </c>
       <c r="F52" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="G52">
         <v>5.9</v>
@@ -4680,22 +4680,22 @@
     </row>
     <row r="53" spans="1:23">
       <c r="A53">
-        <v>2013</v>
-      </c>
-      <c r="B53">
+        <v>2703000858</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>2013</v>
+      </c>
+      <c r="D53">
         <v>27</v>
       </c>
-      <c r="C53">
+      <c r="E53">
         <v>27</v>
       </c>
-      <c r="D53" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53">
-        <v>2703000858</v>
-      </c>
       <c r="F53" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="G53">
         <v>5.2</v>
@@ -4751,22 +4751,22 @@
     </row>
     <row r="54" spans="1:23">
       <c r="A54">
-        <v>2013</v>
-      </c>
-      <c r="B54">
+        <v>5261086749</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54">
+        <v>2013</v>
+      </c>
+      <c r="D54">
         <v>28</v>
       </c>
-      <c r="C54">
+      <c r="E54">
         <v>52</v>
       </c>
-      <c r="D54" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54">
-        <v>5261086749</v>
-      </c>
       <c r="F54" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4822,22 +4822,22 @@
     </row>
     <row r="55" spans="1:23">
       <c r="A55">
-        <v>2013</v>
-      </c>
-      <c r="B55">
+        <v>5640005415</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55">
+        <v>2013</v>
+      </c>
+      <c r="D55">
         <v>28</v>
       </c>
-      <c r="C55">
+      <c r="E55">
         <v>56</v>
       </c>
-      <c r="D55" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55">
-        <v>5640005415</v>
-      </c>
       <c r="F55" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4893,22 +4893,22 @@
     </row>
     <row r="56" spans="1:23">
       <c r="A56">
-        <v>2013</v>
-      </c>
-      <c r="B56">
+        <v>3437006665</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56">
+        <v>2013</v>
+      </c>
+      <c r="D56">
         <v>28</v>
       </c>
-      <c r="C56">
+      <c r="E56">
         <v>34</v>
       </c>
-      <c r="D56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56">
-        <v>3437006665</v>
-      </c>
       <c r="F56" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4964,22 +4964,22 @@
     </row>
     <row r="57" spans="1:23">
       <c r="A57">
-        <v>2013</v>
-      </c>
-      <c r="B57">
+        <v>6165111610</v>
+      </c>
+      <c r="B57" t="s">
         <v>28</v>
       </c>
       <c r="C57">
+        <v>2013</v>
+      </c>
+      <c r="D57">
+        <v>28</v>
+      </c>
+      <c r="E57">
         <v>61</v>
       </c>
-      <c r="D57" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57">
-        <v>6165111610</v>
-      </c>
       <c r="F57" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="G57">
         <v>2.1</v>
@@ -5035,22 +5035,22 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58">
-        <v>2013</v>
-      </c>
-      <c r="B58">
+        <v>5614018560</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58">
+        <v>2013</v>
+      </c>
+      <c r="D58">
         <v>29</v>
       </c>
-      <c r="C58">
+      <c r="E58">
         <v>56</v>
       </c>
-      <c r="D58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58">
-        <v>5614018560</v>
-      </c>
       <c r="F58" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="G58">
         <v>1.4</v>
@@ -5106,22 +5106,22 @@
     </row>
     <row r="59" spans="1:23">
       <c r="A59">
-        <v>2013</v>
-      </c>
-      <c r="B59">
+        <v>1834051678</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59">
+        <v>2013</v>
+      </c>
+      <c r="D59">
         <v>34</v>
       </c>
-      <c r="C59">
+      <c r="E59">
         <v>18</v>
       </c>
-      <c r="D59" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59">
-        <v>1834051678</v>
-      </c>
       <c r="F59" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="G59">
         <v>4.4</v>
@@ -5177,22 +5177,22 @@
     </row>
     <row r="60" spans="1:23">
       <c r="A60">
-        <v>2013</v>
-      </c>
-      <c r="B60">
+        <v>7601000640</v>
+      </c>
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60">
+        <v>2013</v>
+      </c>
+      <c r="D60">
         <v>34</v>
       </c>
-      <c r="C60">
+      <c r="E60">
         <v>76</v>
       </c>
-      <c r="D60" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60">
-        <v>7601000640</v>
-      </c>
       <c r="F60" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="G60">
         <v>10.2</v>
@@ -5248,22 +5248,22 @@
     </row>
     <row r="61" spans="1:23">
       <c r="A61">
-        <v>2013</v>
-      </c>
-      <c r="B61">
+        <v>1650161470</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61">
+        <v>2013</v>
+      </c>
+      <c r="D61">
         <v>34</v>
       </c>
-      <c r="C61">
+      <c r="E61">
         <v>16</v>
       </c>
-      <c r="D61" t="s">
-        <v>82</v>
-      </c>
-      <c r="E61">
-        <v>1650161470</v>
-      </c>
       <c r="F61" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="G61">
         <v>12.8</v>
@@ -5319,22 +5319,22 @@
     </row>
     <row r="62" spans="1:23">
       <c r="A62">
-        <v>2013</v>
-      </c>
-      <c r="B62">
+        <v>4703038767</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62">
+        <v>2013</v>
+      </c>
+      <c r="D62">
         <v>34</v>
       </c>
-      <c r="C62">
+      <c r="E62">
         <v>47</v>
       </c>
-      <c r="D62" t="s">
-        <v>83</v>
-      </c>
-      <c r="E62">
-        <v>4703038767</v>
-      </c>
       <c r="F62" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="G62">
         <v>4.9</v>
@@ -5390,22 +5390,22 @@
     </row>
     <row r="63" spans="1:23">
       <c r="A63">
-        <v>2013</v>
-      </c>
-      <c r="B63">
+        <v>7743816842</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63">
+        <v>2013</v>
+      </c>
+      <c r="D63">
         <v>34</v>
       </c>
-      <c r="C63">
+      <c r="E63">
         <v>77</v>
       </c>
-      <c r="D63" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63">
-        <v>7743816842</v>
-      </c>
       <c r="F63" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5461,22 +5461,22 @@
     </row>
     <row r="64" spans="1:23">
       <c r="A64">
-        <v>2013</v>
-      </c>
-      <c r="B64">
+        <v>1646021952</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64">
+        <v>2013</v>
+      </c>
+      <c r="D64">
         <v>34</v>
       </c>
-      <c r="C64">
+      <c r="E64">
         <v>16</v>
       </c>
-      <c r="D64" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64">
-        <v>1646021952</v>
-      </c>
       <c r="F64" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="G64">
         <v>9.2</v>
@@ -5532,22 +5532,22 @@
     </row>
     <row r="65" spans="1:23">
       <c r="A65">
-        <v>2013</v>
-      </c>
-      <c r="B65">
+        <v>6320002223</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65">
+        <v>2013</v>
+      </c>
+      <c r="D65">
         <v>34</v>
       </c>
-      <c r="C65">
+      <c r="E65">
         <v>63</v>
       </c>
-      <c r="D65" t="s">
-        <v>86</v>
-      </c>
-      <c r="E65">
-        <v>6320002223</v>
-      </c>
       <c r="F65" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="G65">
         <v>71.3</v>
@@ -5603,22 +5603,22 @@
     </row>
     <row r="66" spans="1:23">
       <c r="A66">
-        <v>2013</v>
-      </c>
-      <c r="B66">
+        <v>5614023224</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66">
+        <v>2013</v>
+      </c>
+      <c r="D66">
         <v>35</v>
       </c>
-      <c r="C66">
+      <c r="E66">
         <v>56</v>
       </c>
-      <c r="D66" t="s">
-        <v>87</v>
-      </c>
-      <c r="E66">
-        <v>5614023224</v>
-      </c>
       <c r="F66" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="G66">
         <v>5.3</v>
@@ -5674,22 +5674,22 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67">
-        <v>2013</v>
-      </c>
-      <c r="B67">
+        <v>4715019631</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67">
+        <v>2013</v>
+      </c>
+      <c r="D67">
         <v>35</v>
       </c>
-      <c r="C67">
+      <c r="E67">
         <v>47</v>
       </c>
-      <c r="D67" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67">
-        <v>4715019631</v>
-      </c>
       <c r="F67" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="G67">
         <v>32.6</v>
@@ -5745,22 +5745,22 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68">
-        <v>2013</v>
-      </c>
-      <c r="B68">
+        <v>7203144145</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68">
+        <v>2013</v>
+      </c>
+      <c r="D68">
         <v>36</v>
       </c>
-      <c r="C68">
+      <c r="E68">
         <v>72</v>
       </c>
-      <c r="D68" t="s">
-        <v>89</v>
-      </c>
-      <c r="E68">
-        <v>7203144145</v>
-      </c>
       <c r="F68" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -5816,22 +5816,22 @@
     </row>
     <row r="69" spans="1:23">
       <c r="A69">
-        <v>2013</v>
-      </c>
-      <c r="B69">
+        <v>1650206314</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69">
+        <v>2013</v>
+      </c>
+      <c r="D69">
         <v>36</v>
       </c>
-      <c r="C69">
+      <c r="E69">
         <v>16</v>
       </c>
-      <c r="D69" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69">
-        <v>1650206314</v>
-      </c>
       <c r="F69" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="G69">
         <v>1.1</v>
@@ -5887,22 +5887,22 @@
     </row>
     <row r="70" spans="1:23">
       <c r="A70">
-        <v>2013</v>
-      </c>
-      <c r="B70">
+        <v>6230004963</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70">
+        <v>2013</v>
+      </c>
+      <c r="D70">
         <v>37</v>
       </c>
-      <c r="C70">
+      <c r="E70">
         <v>62</v>
       </c>
-      <c r="D70" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70">
-        <v>6230004963</v>
-      </c>
       <c r="F70" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="G70">
         <v>0.4</v>
@@ -5958,22 +5958,22 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71">
-        <v>2013</v>
-      </c>
-      <c r="B71">
+        <v>7733109347</v>
+      </c>
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71">
+        <v>2013</v>
+      </c>
+      <c r="D71">
         <v>40</v>
       </c>
-      <c r="C71">
+      <c r="E71">
         <v>77</v>
       </c>
-      <c r="D71" t="s">
-        <v>92</v>
-      </c>
-      <c r="E71">
-        <v>7733109347</v>
-      </c>
       <c r="F71" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="G71">
         <v>4.9</v>
@@ -6029,22 +6029,22 @@
     </row>
     <row r="72" spans="1:23">
       <c r="A72">
-        <v>2013</v>
-      </c>
-      <c r="B72">
+        <v>7611020204</v>
+      </c>
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72">
+        <v>2013</v>
+      </c>
+      <c r="D72">
         <v>40</v>
       </c>
-      <c r="C72">
+      <c r="E72">
         <v>76</v>
       </c>
-      <c r="D72" t="s">
-        <v>93</v>
-      </c>
-      <c r="E72">
-        <v>7611020204</v>
-      </c>
       <c r="F72" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="G72">
         <v>2.1</v>
@@ -6100,22 +6100,22 @@
     </row>
     <row r="73" spans="1:23">
       <c r="A73">
-        <v>2013</v>
-      </c>
-      <c r="B73">
+        <v>7817312063</v>
+      </c>
+      <c r="B73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73">
+        <v>2013</v>
+      </c>
+      <c r="D73">
         <v>40</v>
       </c>
-      <c r="C73">
+      <c r="E73">
         <v>78</v>
       </c>
-      <c r="D73" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73">
-        <v>7817312063</v>
-      </c>
       <c r="F73" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="G73">
         <v>6.3</v>
@@ -6171,22 +6171,22 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74">
-        <v>2013</v>
-      </c>
-      <c r="B74">
+        <v>2420002597</v>
+      </c>
+      <c r="B74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74">
+        <v>2013</v>
+      </c>
+      <c r="D74">
         <v>40</v>
       </c>
-      <c r="C74">
+      <c r="E74">
         <v>24</v>
       </c>
-      <c r="D74" t="s">
-        <v>95</v>
-      </c>
-      <c r="E74">
-        <v>2420002597</v>
-      </c>
       <c r="F74" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="G74">
         <v>73.9</v>
@@ -6242,22 +6242,22 @@
     </row>
     <row r="75" spans="1:23">
       <c r="A75">
-        <v>2013</v>
-      </c>
-      <c r="B75">
+        <v>4501122913</v>
+      </c>
+      <c r="B75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75">
+        <v>2013</v>
+      </c>
+      <c r="D75">
         <v>40</v>
       </c>
-      <c r="C75">
+      <c r="E75">
         <v>45</v>
       </c>
-      <c r="D75" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75">
-        <v>4501122913</v>
-      </c>
       <c r="F75" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="G75">
         <v>2.8</v>
@@ -6313,22 +6313,22 @@
     </row>
     <row r="76" spans="1:23">
       <c r="A76">
-        <v>2013</v>
-      </c>
-      <c r="B76">
+        <v>7606053324</v>
+      </c>
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76">
+        <v>2013</v>
+      </c>
+      <c r="D76">
         <v>40</v>
       </c>
-      <c r="C76">
+      <c r="E76">
         <v>76</v>
       </c>
-      <c r="D76" t="s">
-        <v>97</v>
-      </c>
-      <c r="E76">
-        <v>7606053324</v>
-      </c>
       <c r="F76" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="G76">
         <v>18.2</v>
@@ -6384,22 +6384,22 @@
     </row>
     <row r="77" spans="1:23">
       <c r="A77">
-        <v>2013</v>
-      </c>
-      <c r="B77">
+        <v>2320109650</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77">
+        <v>2013</v>
+      </c>
+      <c r="D77">
         <v>40</v>
       </c>
-      <c r="C77">
+      <c r="E77">
         <v>23</v>
       </c>
-      <c r="D77" t="s">
-        <v>98</v>
-      </c>
-      <c r="E77">
-        <v>2320109650</v>
-      </c>
       <c r="F77" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="G77">
         <v>1.3</v>
@@ -6455,22 +6455,22 @@
     </row>
     <row r="78" spans="1:23">
       <c r="A78">
-        <v>2013</v>
-      </c>
-      <c r="B78">
+        <v>5904119383</v>
+      </c>
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78">
+        <v>2013</v>
+      </c>
+      <c r="D78">
         <v>40</v>
       </c>
-      <c r="C78">
+      <c r="E78">
         <v>59</v>
       </c>
-      <c r="D78" t="s">
-        <v>99</v>
-      </c>
-      <c r="E78">
-        <v>5904119383</v>
-      </c>
       <c r="F78" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="G78">
         <v>43.2</v>
@@ -6526,22 +6526,22 @@
     </row>
     <row r="79" spans="1:23">
       <c r="A79">
-        <v>2013</v>
-      </c>
-      <c r="B79">
+        <v>6315376946</v>
+      </c>
+      <c r="B79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79">
+        <v>2013</v>
+      </c>
+      <c r="D79">
         <v>40</v>
       </c>
-      <c r="C79">
+      <c r="E79">
         <v>63</v>
       </c>
-      <c r="D79" t="s">
-        <v>100</v>
-      </c>
-      <c r="E79">
-        <v>6315376946</v>
-      </c>
       <c r="F79" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="G79">
         <v>40.9</v>
@@ -6597,22 +6597,22 @@
     </row>
     <row r="80" spans="1:23">
       <c r="A80">
-        <v>2013</v>
-      </c>
-      <c r="B80">
+        <v>7726671234</v>
+      </c>
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80">
+        <v>2013</v>
+      </c>
+      <c r="D80">
         <v>41</v>
       </c>
-      <c r="C80">
+      <c r="E80">
         <v>77</v>
       </c>
-      <c r="D80" t="s">
-        <v>101</v>
-      </c>
-      <c r="E80">
-        <v>7726671234</v>
-      </c>
       <c r="F80" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="G80">
         <v>1.9</v>
@@ -6668,22 +6668,22 @@
     </row>
     <row r="81" spans="1:23">
       <c r="A81">
-        <v>2013</v>
-      </c>
-      <c r="B81">
+        <v>6167081833</v>
+      </c>
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81">
+        <v>2013</v>
+      </c>
+      <c r="D81">
         <v>41</v>
       </c>
-      <c r="C81">
+      <c r="E81">
         <v>61</v>
       </c>
-      <c r="D81" t="s">
-        <v>102</v>
-      </c>
-      <c r="E81">
-        <v>6167081833</v>
-      </c>
       <c r="F81" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="G81">
         <v>5.3</v>
@@ -6739,22 +6739,22 @@
     </row>
     <row r="82" spans="1:23">
       <c r="A82">
-        <v>2013</v>
-      </c>
-      <c r="B82">
+        <v>7724791423</v>
+      </c>
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82">
+        <v>2013</v>
+      </c>
+      <c r="D82">
         <v>45</v>
       </c>
-      <c r="C82">
+      <c r="E82">
         <v>77</v>
       </c>
-      <c r="D82" t="s">
-        <v>103</v>
-      </c>
-      <c r="E82">
-        <v>7724791423</v>
-      </c>
       <c r="F82" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="G82">
         <v>2.8</v>
@@ -6810,22 +6810,22 @@
     </row>
     <row r="83" spans="1:23">
       <c r="A83">
-        <v>2013</v>
-      </c>
-      <c r="B83">
+        <v>7724736609</v>
+      </c>
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83">
+        <v>2013</v>
+      </c>
+      <c r="D83">
         <v>45</v>
       </c>
-      <c r="C83">
+      <c r="E83">
         <v>77</v>
       </c>
-      <c r="D83" t="s">
-        <v>104</v>
-      </c>
-      <c r="E83">
-        <v>7724736609</v>
-      </c>
       <c r="F83" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="G83">
         <v>7</v>
@@ -6881,22 +6881,22 @@
     </row>
     <row r="84" spans="1:23">
       <c r="A84">
-        <v>2013</v>
-      </c>
-      <c r="B84">
+        <v>7604063824</v>
+      </c>
+      <c r="B84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84">
+        <v>2013</v>
+      </c>
+      <c r="D84">
         <v>45</v>
       </c>
-      <c r="C84">
+      <c r="E84">
         <v>76</v>
       </c>
-      <c r="D84" t="s">
-        <v>105</v>
-      </c>
-      <c r="E84">
-        <v>7604063824</v>
-      </c>
       <c r="F84" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -6952,22 +6952,22 @@
     </row>
     <row r="85" spans="1:23">
       <c r="A85">
-        <v>2013</v>
-      </c>
-      <c r="B85">
+        <v>2009002493</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85">
+        <v>2013</v>
+      </c>
+      <c r="D85">
         <v>45</v>
       </c>
-      <c r="C85">
+      <c r="E85">
         <v>20</v>
       </c>
-      <c r="D85" t="s">
-        <v>106</v>
-      </c>
-      <c r="E85">
-        <v>2009002493</v>
-      </c>
       <c r="F85" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="G85">
         <v>0.6</v>
@@ -7023,22 +7023,22 @@
     </row>
     <row r="86" spans="1:23">
       <c r="A86">
-        <v>2013</v>
-      </c>
-      <c r="B86">
+        <v>6163082392</v>
+      </c>
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86">
+        <v>2013</v>
+      </c>
+      <c r="D86">
         <v>45</v>
       </c>
-      <c r="C86">
+      <c r="E86">
         <v>61</v>
       </c>
-      <c r="D86" t="s">
-        <v>107</v>
-      </c>
-      <c r="E86">
-        <v>6163082392</v>
-      </c>
       <c r="F86" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="G86">
         <v>1.5</v>
@@ -7094,22 +7094,22 @@
     </row>
     <row r="87" spans="1:23">
       <c r="A87">
-        <v>2013</v>
-      </c>
-      <c r="B87">
+        <v>912003087</v>
+      </c>
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87">
+        <v>2013</v>
+      </c>
+      <c r="D87">
         <v>45</v>
       </c>
-      <c r="C87">
+      <c r="E87">
         <v>9</v>
       </c>
-      <c r="D87" t="s">
-        <v>108</v>
-      </c>
-      <c r="E87">
-        <v>912003087</v>
-      </c>
       <c r="F87" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="G87">
         <v>0.6</v>
@@ -7165,22 +7165,22 @@
     </row>
     <row r="88" spans="1:23">
       <c r="A88">
-        <v>2013</v>
-      </c>
-      <c r="B88">
+        <v>6234028965</v>
+      </c>
+      <c r="B88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88">
+        <v>2013</v>
+      </c>
+      <c r="D88">
         <v>45</v>
       </c>
-      <c r="C88">
+      <c r="E88">
         <v>62</v>
       </c>
-      <c r="D88" t="s">
-        <v>109</v>
-      </c>
-      <c r="E88">
-        <v>6234028965</v>
-      </c>
       <c r="F88" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -7236,22 +7236,22 @@
     </row>
     <row r="89" spans="1:23">
       <c r="A89">
-        <v>2013</v>
-      </c>
-      <c r="B89">
+        <v>6125022025</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89">
+        <v>2013</v>
+      </c>
+      <c r="D89">
         <v>45</v>
       </c>
-      <c r="C89">
+      <c r="E89">
         <v>61</v>
       </c>
-      <c r="D89" t="s">
-        <v>110</v>
-      </c>
-      <c r="E89">
-        <v>6125022025</v>
-      </c>
       <c r="F89" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -7307,22 +7307,22 @@
     </row>
     <row r="90" spans="1:23">
       <c r="A90">
-        <v>2013</v>
-      </c>
-      <c r="B90">
+        <v>7712023392</v>
+      </c>
+      <c r="B90" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90">
+        <v>2013</v>
+      </c>
+      <c r="D90">
         <v>50</v>
       </c>
-      <c r="C90">
+      <c r="E90">
         <v>77</v>
       </c>
-      <c r="D90" t="s">
-        <v>111</v>
-      </c>
-      <c r="E90">
-        <v>7712023392</v>
-      </c>
       <c r="F90" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="G90">
         <v>0.3</v>
@@ -7378,22 +7378,22 @@
     </row>
     <row r="91" spans="1:23">
       <c r="A91">
-        <v>2013</v>
-      </c>
-      <c r="B91">
+        <v>5406409682</v>
+      </c>
+      <c r="B91" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91">
+        <v>2013</v>
+      </c>
+      <c r="D91">
         <v>51</v>
       </c>
-      <c r="C91">
+      <c r="E91">
         <v>54</v>
       </c>
-      <c r="D91" t="s">
-        <v>112</v>
-      </c>
-      <c r="E91">
-        <v>5406409682</v>
-      </c>
       <c r="F91" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -7449,22 +7449,22 @@
     </row>
     <row r="92" spans="1:23">
       <c r="A92">
-        <v>2013</v>
-      </c>
-      <c r="B92">
+        <v>5614054173</v>
+      </c>
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92">
+        <v>2013</v>
+      </c>
+      <c r="D92">
         <v>51</v>
       </c>
-      <c r="C92">
+      <c r="E92">
         <v>56</v>
       </c>
-      <c r="D92" t="s">
-        <v>113</v>
-      </c>
-      <c r="E92">
-        <v>5614054173</v>
-      </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -7520,22 +7520,22 @@
     </row>
     <row r="93" spans="1:23">
       <c r="A93">
-        <v>2013</v>
-      </c>
-      <c r="B93">
+        <v>7726311464</v>
+      </c>
+      <c r="B93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93">
+        <v>2013</v>
+      </c>
+      <c r="D93">
         <v>51</v>
       </c>
-      <c r="C93">
+      <c r="E93">
         <v>77</v>
       </c>
-      <c r="D93" t="s">
-        <v>114</v>
-      </c>
-      <c r="E93">
-        <v>7726311464</v>
-      </c>
       <c r="F93" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="G93">
         <v>2.1</v>
@@ -7591,22 +7591,22 @@
     </row>
     <row r="94" spans="1:23">
       <c r="A94">
-        <v>2013</v>
-      </c>
-      <c r="B94">
+        <v>7730589568</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94">
+        <v>2013</v>
+      </c>
+      <c r="D94">
         <v>52</v>
       </c>
-      <c r="C94">
+      <c r="E94">
         <v>77</v>
       </c>
-      <c r="D94" t="s">
-        <v>115</v>
-      </c>
-      <c r="E94">
-        <v>7730589568</v>
-      </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="G94">
         <v>5.5</v>
@@ -7662,22 +7662,22 @@
     </row>
     <row r="95" spans="1:23">
       <c r="A95">
-        <v>2013</v>
-      </c>
-      <c r="B95">
+        <v>7707296041</v>
+      </c>
+      <c r="B95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95">
+        <v>2013</v>
+      </c>
+      <c r="D95">
         <v>55</v>
       </c>
-      <c r="C95">
+      <c r="E95">
         <v>77</v>
       </c>
-      <c r="D95" t="s">
-        <v>116</v>
-      </c>
-      <c r="E95">
-        <v>7707296041</v>
-      </c>
       <c r="F95" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="G95">
         <v>0.7</v>
@@ -7733,22 +7733,22 @@
     </row>
     <row r="96" spans="1:23">
       <c r="A96">
-        <v>2013</v>
-      </c>
-      <c r="B96">
+        <v>7704753638</v>
+      </c>
+      <c r="B96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96">
+        <v>2013</v>
+      </c>
+      <c r="D96">
         <v>55</v>
       </c>
-      <c r="C96">
+      <c r="E96">
         <v>77</v>
       </c>
-      <c r="D96" t="s">
-        <v>117</v>
-      </c>
-      <c r="E96">
-        <v>7704753638</v>
-      </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="G96">
         <v>5.3</v>
@@ -7804,22 +7804,22 @@
     </row>
     <row r="97" spans="1:23">
       <c r="A97">
-        <v>2013</v>
-      </c>
-      <c r="B97">
+        <v>2320102816</v>
+      </c>
+      <c r="B97" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97">
+        <v>2013</v>
+      </c>
+      <c r="D97">
         <v>60</v>
       </c>
-      <c r="C97">
+      <c r="E97">
         <v>23</v>
       </c>
-      <c r="D97" t="s">
-        <v>118</v>
-      </c>
-      <c r="E97">
-        <v>2320102816</v>
-      </c>
       <c r="F97" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="G97">
         <v>8.3</v>
@@ -7875,22 +7875,22 @@
     </row>
     <row r="98" spans="1:23">
       <c r="A98">
-        <v>2013</v>
-      </c>
-      <c r="B98">
+        <v>7839411780</v>
+      </c>
+      <c r="B98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98">
+        <v>2013</v>
+      </c>
+      <c r="D98">
         <v>61</v>
       </c>
-      <c r="C98">
+      <c r="E98">
         <v>78</v>
       </c>
-      <c r="D98" t="s">
-        <v>119</v>
-      </c>
-      <c r="E98">
-        <v>7839411780</v>
-      </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -7946,22 +7946,22 @@
     </row>
     <row r="99" spans="1:23">
       <c r="A99">
-        <v>2013</v>
-      </c>
-      <c r="B99">
+        <v>2320157710</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99">
+        <v>2013</v>
+      </c>
+      <c r="D99">
         <v>61</v>
       </c>
-      <c r="C99">
+      <c r="E99">
         <v>23</v>
       </c>
-      <c r="D99" t="s">
-        <v>120</v>
-      </c>
-      <c r="E99">
-        <v>2320157710</v>
-      </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="G99">
         <v>5.3</v>
@@ -8017,22 +8017,22 @@
     </row>
     <row r="100" spans="1:23">
       <c r="A100">
-        <v>2013</v>
-      </c>
-      <c r="B100">
+        <v>7813173683</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100">
+        <v>2013</v>
+      </c>
+      <c r="D100">
         <v>63</v>
       </c>
-      <c r="C100">
+      <c r="E100">
         <v>78</v>
       </c>
-      <c r="D100" t="s">
-        <v>121</v>
-      </c>
-      <c r="E100">
-        <v>7813173683</v>
-      </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="G100">
         <v>2.1</v>
@@ -8088,22 +8088,22 @@
     </row>
     <row r="101" spans="1:23">
       <c r="A101">
-        <v>2013</v>
-      </c>
-      <c r="B101">
+        <v>2502039781</v>
+      </c>
+      <c r="B101" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101">
+        <v>2013</v>
+      </c>
+      <c r="D101">
         <v>63</v>
       </c>
-      <c r="C101">
+      <c r="E101">
         <v>25</v>
       </c>
-      <c r="D101" t="s">
-        <v>122</v>
-      </c>
-      <c r="E101">
-        <v>2502039781</v>
-      </c>
       <c r="F101" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="G101">
         <v>6.1</v>
@@ -8159,22 +8159,22 @@
     </row>
     <row r="102" spans="1:23">
       <c r="A102">
-        <v>2013</v>
-      </c>
-      <c r="B102">
+        <v>6313036408</v>
+      </c>
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102">
+        <v>2013</v>
+      </c>
+      <c r="D102">
         <v>63</v>
       </c>
-      <c r="C102">
+      <c r="E102">
         <v>63</v>
       </c>
-      <c r="D102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E102">
-        <v>6313036408</v>
-      </c>
       <c r="F102" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="G102">
         <v>0.5</v>
@@ -8230,22 +8230,22 @@
     </row>
     <row r="103" spans="1:23">
       <c r="A103">
-        <v>2013</v>
-      </c>
-      <c r="B103">
+        <v>2317044843</v>
+      </c>
+      <c r="B103" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103">
+        <v>2013</v>
+      </c>
+      <c r="D103">
         <v>63</v>
       </c>
-      <c r="C103">
+      <c r="E103">
         <v>23</v>
       </c>
-      <c r="D103" t="s">
-        <v>124</v>
-      </c>
-      <c r="E103">
-        <v>2317044843</v>
-      </c>
       <c r="F103" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="G103">
         <v>8.5</v>
@@ -8301,22 +8301,22 @@
     </row>
     <row r="104" spans="1:23">
       <c r="A104">
-        <v>2013</v>
-      </c>
-      <c r="B104">
+        <v>6608000446</v>
+      </c>
+      <c r="B104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104">
+        <v>2013</v>
+      </c>
+      <c r="D104">
         <v>63</v>
       </c>
-      <c r="C104">
+      <c r="E104">
         <v>66</v>
       </c>
-      <c r="D104" t="s">
-        <v>125</v>
-      </c>
-      <c r="E104">
-        <v>6608000446</v>
-      </c>
       <c r="F104" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="G104">
         <v>5.3</v>
@@ -8372,22 +8372,22 @@
     </row>
     <row r="105" spans="1:23">
       <c r="A105">
-        <v>2013</v>
-      </c>
-      <c r="B105">
+        <v>7703590927</v>
+      </c>
+      <c r="B105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C105">
+        <v>2013</v>
+      </c>
+      <c r="D105">
         <v>63</v>
       </c>
-      <c r="C105">
+      <c r="E105">
         <v>77</v>
       </c>
-      <c r="D105" t="s">
-        <v>126</v>
-      </c>
-      <c r="E105">
-        <v>7703590927</v>
-      </c>
       <c r="F105" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="G105">
         <v>38.3</v>
@@ -8443,22 +8443,22 @@
     </row>
     <row r="106" spans="1:23">
       <c r="A106">
-        <v>2013</v>
-      </c>
-      <c r="B106">
+        <v>7712094033</v>
+      </c>
+      <c r="B106" t="s">
+        <v>44</v>
+      </c>
+      <c r="C106">
+        <v>2013</v>
+      </c>
+      <c r="D106">
         <v>63</v>
       </c>
-      <c r="C106">
+      <c r="E106">
         <v>77</v>
       </c>
-      <c r="D106" t="s">
-        <v>127</v>
-      </c>
-      <c r="E106">
-        <v>7712094033</v>
-      </c>
       <c r="F106" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="G106">
         <v>35.1</v>
@@ -8514,22 +8514,22 @@
     </row>
     <row r="107" spans="1:23">
       <c r="A107">
-        <v>2013</v>
-      </c>
-      <c r="B107">
+        <v>7713730490</v>
+      </c>
+      <c r="B107" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107">
+        <v>2013</v>
+      </c>
+      <c r="D107">
         <v>64</v>
       </c>
-      <c r="C107">
+      <c r="E107">
         <v>77</v>
       </c>
-      <c r="D107" t="s">
-        <v>128</v>
-      </c>
-      <c r="E107">
-        <v>7713730490</v>
-      </c>
       <c r="F107" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -8585,22 +8585,22 @@
     </row>
     <row r="108" spans="1:23">
       <c r="A108">
-        <v>2013</v>
-      </c>
-      <c r="B108">
+        <v>7725027605</v>
+      </c>
+      <c r="B108" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108">
+        <v>2013</v>
+      </c>
+      <c r="D108">
         <v>64</v>
       </c>
-      <c r="C108">
+      <c r="E108">
         <v>77</v>
       </c>
-      <c r="D108" t="s">
-        <v>129</v>
-      </c>
-      <c r="E108">
-        <v>7725027605</v>
-      </c>
       <c r="F108" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="G108">
         <v>20.1</v>
@@ -8656,22 +8656,22 @@
     </row>
     <row r="109" spans="1:23">
       <c r="A109">
-        <v>2013</v>
-      </c>
-      <c r="B109">
+        <v>7707049388</v>
+      </c>
+      <c r="B109" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109">
+        <v>2013</v>
+      </c>
+      <c r="D109">
         <v>64</v>
       </c>
-      <c r="C109">
+      <c r="E109">
         <v>77</v>
       </c>
-      <c r="D109" t="s">
-        <v>130</v>
-      </c>
-      <c r="E109">
-        <v>7707049388</v>
-      </c>
       <c r="F109" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="G109">
         <v>336.2</v>
@@ -8727,22 +8727,22 @@
     </row>
     <row r="110" spans="1:23">
       <c r="A110">
-        <v>2013</v>
-      </c>
-      <c r="B110">
+        <v>7727541830</v>
+      </c>
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110">
+        <v>2013</v>
+      </c>
+      <c r="D110">
         <v>65</v>
       </c>
-      <c r="C110">
+      <c r="E110">
         <v>77</v>
       </c>
-      <c r="D110" t="s">
-        <v>131</v>
-      </c>
-      <c r="E110">
-        <v>7727541830</v>
-      </c>
       <c r="F110" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -8798,22 +8798,22 @@
     </row>
     <row r="111" spans="1:23">
       <c r="A111">
-        <v>2013</v>
-      </c>
-      <c r="B111">
+        <v>4003034171</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111">
+        <v>2013</v>
+      </c>
+      <c r="D111">
         <v>65</v>
       </c>
-      <c r="C111">
+      <c r="E111">
         <v>40</v>
       </c>
-      <c r="D111" t="s">
-        <v>132</v>
-      </c>
-      <c r="E111">
-        <v>4003034171</v>
-      </c>
       <c r="F111" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="G111">
         <v>2.4</v>
@@ -8869,22 +8869,22 @@
     </row>
     <row r="112" spans="1:23">
       <c r="A112">
-        <v>2013</v>
-      </c>
-      <c r="B112">
+        <v>7721235763</v>
+      </c>
+      <c r="B112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112">
+        <v>2013</v>
+      </c>
+      <c r="D112">
         <v>65</v>
       </c>
-      <c r="C112">
+      <c r="E112">
         <v>77</v>
       </c>
-      <c r="D112" t="s">
-        <v>133</v>
-      </c>
-      <c r="E112">
-        <v>7721235763</v>
-      </c>
       <c r="F112" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="G112">
         <v>0.1</v>
@@ -8940,22 +8940,22 @@
     </row>
     <row r="113" spans="1:23">
       <c r="A113">
-        <v>2013</v>
-      </c>
-      <c r="B113">
+        <v>7710884741</v>
+      </c>
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113">
+        <v>2013</v>
+      </c>
+      <c r="D113">
         <v>65</v>
       </c>
-      <c r="C113">
+      <c r="E113">
         <v>77</v>
       </c>
-      <c r="D113" t="s">
-        <v>134</v>
-      </c>
-      <c r="E113">
-        <v>7710884741</v>
-      </c>
       <c r="F113" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="G113">
         <v>0.1</v>
@@ -9011,22 +9011,22 @@
     </row>
     <row r="114" spans="1:23">
       <c r="A114">
-        <v>2013</v>
-      </c>
-      <c r="B114">
+        <v>3663029916</v>
+      </c>
+      <c r="B114" t="s">
+        <v>46</v>
+      </c>
+      <c r="C114">
+        <v>2013</v>
+      </c>
+      <c r="D114">
         <v>65</v>
       </c>
-      <c r="C114">
+      <c r="E114">
         <v>36</v>
       </c>
-      <c r="D114" t="s">
-        <v>135</v>
-      </c>
-      <c r="E114">
-        <v>3663029916</v>
-      </c>
       <c r="F114" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="G114">
         <v>0.6</v>
@@ -9082,22 +9082,22 @@
     </row>
     <row r="115" spans="1:23">
       <c r="A115">
-        <v>2013</v>
-      </c>
-      <c r="B115">
+        <v>7708710924</v>
+      </c>
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115">
+        <v>2013</v>
+      </c>
+      <c r="D115">
         <v>65</v>
       </c>
-      <c r="C115">
+      <c r="E115">
         <v>77</v>
       </c>
-      <c r="D115" t="s">
-        <v>136</v>
-      </c>
-      <c r="E115">
-        <v>7708710924</v>
-      </c>
       <c r="F115" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -9153,22 +9153,22 @@
     </row>
     <row r="116" spans="1:23">
       <c r="A116">
-        <v>2013</v>
-      </c>
-      <c r="B116">
+        <v>7709413138</v>
+      </c>
+      <c r="B116" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116">
+        <v>2013</v>
+      </c>
+      <c r="D116">
         <v>65</v>
       </c>
-      <c r="C116">
+      <c r="E116">
         <v>77</v>
       </c>
-      <c r="D116" t="s">
-        <v>137</v>
-      </c>
-      <c r="E116">
-        <v>7709413138</v>
-      </c>
       <c r="F116" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="G116">
         <v>0.2</v>
@@ -9224,22 +9224,22 @@
     </row>
     <row r="117" spans="1:23">
       <c r="A117">
-        <v>2013</v>
-      </c>
-      <c r="B117">
+        <v>7709413138</v>
+      </c>
+      <c r="B117" t="s">
+        <v>46</v>
+      </c>
+      <c r="C117">
+        <v>2013</v>
+      </c>
+      <c r="D117">
         <v>65</v>
       </c>
-      <c r="C117">
+      <c r="E117">
         <v>77</v>
       </c>
-      <c r="D117" t="s">
-        <v>137</v>
-      </c>
-      <c r="E117">
-        <v>7709413138</v>
-      </c>
       <c r="F117" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="G117">
         <v>0.2</v>
@@ -9295,22 +9295,22 @@
     </row>
     <row r="118" spans="1:23">
       <c r="A118">
-        <v>2013</v>
-      </c>
-      <c r="B118">
+        <v>7709413138</v>
+      </c>
+      <c r="B118" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118">
+        <v>2013</v>
+      </c>
+      <c r="D118">
         <v>65</v>
       </c>
-      <c r="C118">
+      <c r="E118">
         <v>77</v>
       </c>
-      <c r="D118" t="s">
-        <v>137</v>
-      </c>
-      <c r="E118">
-        <v>7709413138</v>
-      </c>
       <c r="F118" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="G118">
         <v>0.2</v>
@@ -9366,22 +9366,22 @@
     </row>
     <row r="119" spans="1:23">
       <c r="A119">
-        <v>2013</v>
-      </c>
-      <c r="B119">
+        <v>7707131554</v>
+      </c>
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119">
+        <v>2013</v>
+      </c>
+      <c r="D119">
         <v>70</v>
       </c>
-      <c r="C119">
+      <c r="E119">
         <v>77</v>
       </c>
-      <c r="D119" t="s">
-        <v>138</v>
-      </c>
-      <c r="E119">
-        <v>7707131554</v>
-      </c>
       <c r="F119" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -9437,22 +9437,22 @@
     </row>
     <row r="120" spans="1:23">
       <c r="A120">
-        <v>2013</v>
-      </c>
-      <c r="B120">
+        <v>7718226550</v>
+      </c>
+      <c r="B120" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120">
+        <v>2013</v>
+      </c>
+      <c r="D120">
         <v>70</v>
       </c>
-      <c r="C120">
+      <c r="E120">
         <v>77</v>
       </c>
-      <c r="D120" t="s">
-        <v>139</v>
-      </c>
-      <c r="E120">
-        <v>7718226550</v>
-      </c>
       <c r="F120" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -9508,22 +9508,22 @@
     </row>
     <row r="121" spans="1:23">
       <c r="A121">
-        <v>2013</v>
-      </c>
-      <c r="B121">
+        <v>5029140480</v>
+      </c>
+      <c r="B121" t="s">
+        <v>40</v>
+      </c>
+      <c r="C121">
+        <v>2013</v>
+      </c>
+      <c r="D121">
         <v>70</v>
       </c>
-      <c r="C121">
+      <c r="E121">
         <v>50</v>
       </c>
-      <c r="D121" t="s">
-        <v>140</v>
-      </c>
-      <c r="E121">
-        <v>5029140480</v>
-      </c>
       <c r="F121" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="G121">
         <v>1.8</v>
@@ -9579,22 +9579,22 @@
     </row>
     <row r="122" spans="1:23">
       <c r="A122">
-        <v>2013</v>
-      </c>
-      <c r="B122">
+        <v>2312153550</v>
+      </c>
+      <c r="B122" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122">
+        <v>2013</v>
+      </c>
+      <c r="D122">
         <v>70</v>
       </c>
-      <c r="C122">
+      <c r="E122">
         <v>23</v>
       </c>
-      <c r="D122" t="s">
-        <v>141</v>
-      </c>
-      <c r="E122">
-        <v>2312153550</v>
-      </c>
       <c r="F122" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="G122">
         <v>5.6</v>
@@ -9650,22 +9650,22 @@
     </row>
     <row r="123" spans="1:23">
       <c r="A123">
-        <v>2013</v>
-      </c>
-      <c r="B123">
+        <v>7709758887</v>
+      </c>
+      <c r="B123" t="s">
+        <v>39</v>
+      </c>
+      <c r="C123">
+        <v>2013</v>
+      </c>
+      <c r="D123">
         <v>70</v>
       </c>
-      <c r="C123">
+      <c r="E123">
         <v>77</v>
       </c>
-      <c r="D123" t="s">
-        <v>142</v>
-      </c>
-      <c r="E123">
-        <v>7709758887</v>
-      </c>
       <c r="F123" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="G123">
         <v>12.4</v>
@@ -9721,22 +9721,22 @@
     </row>
     <row r="124" spans="1:23">
       <c r="A124">
-        <v>2013</v>
-      </c>
-      <c r="B124">
+        <v>7714046028</v>
+      </c>
+      <c r="B124" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124">
+        <v>2013</v>
+      </c>
+      <c r="D124">
         <v>70</v>
       </c>
-      <c r="C124">
+      <c r="E124">
         <v>77</v>
       </c>
-      <c r="D124" t="s">
-        <v>143</v>
-      </c>
-      <c r="E124">
-        <v>7714046028</v>
-      </c>
       <c r="F124" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G124">
         <v>5.8</v>
@@ -9792,22 +9792,22 @@
     </row>
     <row r="125" spans="1:23">
       <c r="A125">
-        <v>2013</v>
-      </c>
-      <c r="B125">
+        <v>2320153289</v>
+      </c>
+      <c r="B125" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125">
+        <v>2013</v>
+      </c>
+      <c r="D125">
         <v>70</v>
       </c>
-      <c r="C125">
+      <c r="E125">
         <v>23</v>
       </c>
-      <c r="D125" t="s">
-        <v>144</v>
-      </c>
-      <c r="E125">
-        <v>2320153289</v>
-      </c>
       <c r="F125" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="G125">
         <v>2.1</v>
@@ -9863,22 +9863,22 @@
     </row>
     <row r="126" spans="1:23">
       <c r="A126">
-        <v>2013</v>
-      </c>
-      <c r="B126">
+        <v>2320126091</v>
+      </c>
+      <c r="B126" t="s">
+        <v>39</v>
+      </c>
+      <c r="C126">
+        <v>2013</v>
+      </c>
+      <c r="D126">
         <v>70</v>
       </c>
-      <c r="C126">
+      <c r="E126">
         <v>23</v>
       </c>
-      <c r="D126" t="s">
-        <v>145</v>
-      </c>
-      <c r="E126">
-        <v>2320126091</v>
-      </c>
       <c r="F126" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="G126">
         <v>10.5</v>
@@ -9934,22 +9934,22 @@
     </row>
     <row r="127" spans="1:23">
       <c r="A127">
-        <v>2013</v>
-      </c>
-      <c r="B127">
+        <v>7701897590</v>
+      </c>
+      <c r="B127" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127">
+        <v>2013</v>
+      </c>
+      <c r="D127">
         <v>70</v>
       </c>
-      <c r="C127">
+      <c r="E127">
         <v>77</v>
       </c>
-      <c r="D127" t="s">
-        <v>146</v>
-      </c>
-      <c r="E127">
-        <v>7701897590</v>
-      </c>
       <c r="F127" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -10005,22 +10005,22 @@
     </row>
     <row r="128" spans="1:23">
       <c r="A128">
-        <v>2013</v>
-      </c>
-      <c r="B128">
+        <v>2721167592</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128">
+        <v>2013</v>
+      </c>
+      <c r="D128">
         <v>70</v>
       </c>
-      <c r="C128">
+      <c r="E128">
         <v>27</v>
       </c>
-      <c r="D128" t="s">
-        <v>147</v>
-      </c>
-      <c r="E128">
-        <v>2721167592</v>
-      </c>
       <c r="F128" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G128">
         <v>0.3</v>
@@ -10076,22 +10076,22 @@
     </row>
     <row r="129" spans="1:23">
       <c r="A129">
-        <v>2013</v>
-      </c>
-      <c r="B129">
+        <v>5007035121</v>
+      </c>
+      <c r="B129" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129">
+        <v>2013</v>
+      </c>
+      <c r="D129">
         <v>70</v>
       </c>
-      <c r="C129">
+      <c r="E129">
         <v>50</v>
       </c>
-      <c r="D129" t="s">
-        <v>148</v>
-      </c>
-      <c r="E129">
-        <v>5007035121</v>
-      </c>
       <c r="F129" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="G129">
         <v>18.1</v>
@@ -10147,22 +10147,22 @@
     </row>
     <row r="130" spans="1:23">
       <c r="A130">
-        <v>2013</v>
-      </c>
-      <c r="B130">
+        <v>2465102746</v>
+      </c>
+      <c r="B130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130">
+        <v>2013</v>
+      </c>
+      <c r="D130">
         <v>70</v>
       </c>
-      <c r="C130">
+      <c r="E130">
         <v>24</v>
       </c>
-      <c r="D130" t="s">
-        <v>149</v>
-      </c>
-      <c r="E130">
-        <v>2465102746</v>
-      </c>
       <c r="F130" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G130">
         <v>29.4</v>
@@ -10218,22 +10218,22 @@
     </row>
     <row r="131" spans="1:23">
       <c r="A131">
-        <v>2013</v>
-      </c>
-      <c r="B131">
+        <v>5009045076</v>
+      </c>
+      <c r="B131" t="s">
+        <v>48</v>
+      </c>
+      <c r="C131">
+        <v>2013</v>
+      </c>
+      <c r="D131">
         <v>70</v>
       </c>
-      <c r="C131">
+      <c r="E131">
         <v>50</v>
       </c>
-      <c r="D131" t="s">
-        <v>150</v>
-      </c>
-      <c r="E131">
-        <v>5009045076</v>
-      </c>
       <c r="F131" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="G131">
         <v>0.4</v>
@@ -10289,22 +10289,22 @@
     </row>
     <row r="132" spans="1:23">
       <c r="A132">
-        <v>2013</v>
-      </c>
-      <c r="B132">
+        <v>1661028712</v>
+      </c>
+      <c r="B132" t="s">
+        <v>46</v>
+      </c>
+      <c r="C132">
+        <v>2013</v>
+      </c>
+      <c r="D132">
         <v>73</v>
       </c>
-      <c r="C132">
+      <c r="E132">
         <v>16</v>
       </c>
-      <c r="D132" t="s">
-        <v>151</v>
-      </c>
-      <c r="E132">
-        <v>1661028712</v>
-      </c>
       <c r="F132" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="G132">
         <v>0.2</v>
@@ -10360,22 +10360,22 @@
     </row>
     <row r="133" spans="1:23">
       <c r="A133">
-        <v>2013</v>
-      </c>
-      <c r="B133">
+        <v>7718159209</v>
+      </c>
+      <c r="B133" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133">
+        <v>2013</v>
+      </c>
+      <c r="D133">
         <v>73</v>
       </c>
-      <c r="C133">
+      <c r="E133">
         <v>77</v>
       </c>
-      <c r="D133" t="s">
-        <v>152</v>
-      </c>
-      <c r="E133">
-        <v>7718159209</v>
-      </c>
       <c r="F133" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G133">
         <v>1.1</v>
@@ -10431,22 +10431,22 @@
     </row>
     <row r="134" spans="1:23">
       <c r="A134">
-        <v>2013</v>
-      </c>
-      <c r="B134">
+        <v>7415061109</v>
+      </c>
+      <c r="B134" t="s">
+        <v>41</v>
+      </c>
+      <c r="C134">
+        <v>2013</v>
+      </c>
+      <c r="D134">
         <v>73</v>
       </c>
-      <c r="C134">
+      <c r="E134">
         <v>74</v>
       </c>
-      <c r="D134" t="s">
-        <v>153</v>
-      </c>
-      <c r="E134">
-        <v>7415061109</v>
-      </c>
       <c r="F134" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G134">
         <v>1.4</v>
@@ -10502,22 +10502,22 @@
     </row>
     <row r="135" spans="1:23">
       <c r="A135">
-        <v>2013</v>
-      </c>
-      <c r="B135">
+        <v>7838418751</v>
+      </c>
+      <c r="B135" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135">
+        <v>2013</v>
+      </c>
+      <c r="D135">
         <v>73</v>
       </c>
-      <c r="C135">
+      <c r="E135">
         <v>78</v>
       </c>
-      <c r="D135" t="s">
-        <v>154</v>
-      </c>
-      <c r="E135">
-        <v>7838418751</v>
-      </c>
       <c r="F135" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="G135">
         <v>0.6</v>
@@ -10573,22 +10573,22 @@
     </row>
     <row r="136" spans="1:23">
       <c r="A136">
-        <v>2013</v>
-      </c>
-      <c r="B136">
+        <v>7730052050</v>
+      </c>
+      <c r="B136" t="s">
+        <v>46</v>
+      </c>
+      <c r="C136">
+        <v>2013</v>
+      </c>
+      <c r="D136">
         <v>73</v>
       </c>
-      <c r="C136">
+      <c r="E136">
         <v>77</v>
       </c>
-      <c r="D136" t="s">
-        <v>155</v>
-      </c>
-      <c r="E136">
-        <v>7730052050</v>
-      </c>
       <c r="F136" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="G136">
         <v>14.8</v>
@@ -10644,22 +10644,22 @@
     </row>
     <row r="137" spans="1:23">
       <c r="A137">
-        <v>2013</v>
-      </c>
-      <c r="B137">
+        <v>7731084175</v>
+      </c>
+      <c r="B137" t="s">
+        <v>41</v>
+      </c>
+      <c r="C137">
+        <v>2013</v>
+      </c>
+      <c r="D137">
         <v>73</v>
       </c>
-      <c r="C137">
+      <c r="E137">
         <v>77</v>
       </c>
-      <c r="D137" t="s">
-        <v>156</v>
-      </c>
-      <c r="E137">
-        <v>7731084175</v>
-      </c>
       <c r="F137" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G137">
         <v>48.5</v>
@@ -10715,22 +10715,22 @@
     </row>
     <row r="138" spans="1:23">
       <c r="A138">
-        <v>2013</v>
-      </c>
-      <c r="B138">
+        <v>7709756135</v>
+      </c>
+      <c r="B138" t="s">
+        <v>47</v>
+      </c>
+      <c r="C138">
+        <v>2013</v>
+      </c>
+      <c r="D138">
         <v>74</v>
       </c>
-      <c r="C138">
+      <c r="E138">
         <v>77</v>
       </c>
-      <c r="D138" t="s">
-        <v>157</v>
-      </c>
-      <c r="E138">
-        <v>7709756135</v>
-      </c>
       <c r="F138" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G138">
         <v>20.5</v>
@@ -10786,22 +10786,22 @@
     </row>
     <row r="139" spans="1:23">
       <c r="A139">
-        <v>2013</v>
-      </c>
-      <c r="B139">
+        <v>7705620334</v>
+      </c>
+      <c r="B139" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139">
+        <v>2013</v>
+      </c>
+      <c r="D139">
         <v>74</v>
       </c>
-      <c r="C139">
+      <c r="E139">
         <v>77</v>
       </c>
-      <c r="D139" t="s">
-        <v>158</v>
-      </c>
-      <c r="E139">
-        <v>7705620334</v>
-      </c>
       <c r="F139" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -10857,22 +10857,22 @@
     </row>
     <row r="140" spans="1:23">
       <c r="A140">
-        <v>2013</v>
-      </c>
-      <c r="B140">
+        <v>2310119472</v>
+      </c>
+      <c r="B140" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140">
+        <v>2013</v>
+      </c>
+      <c r="D140">
         <v>74</v>
       </c>
-      <c r="C140">
+      <c r="E140">
         <v>23</v>
       </c>
-      <c r="D140" t="s">
-        <v>159</v>
-      </c>
-      <c r="E140">
-        <v>2310119472</v>
-      </c>
       <c r="F140" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G140">
         <v>10.6</v>
@@ -10928,22 +10928,22 @@
     </row>
     <row r="141" spans="1:23">
       <c r="A141">
-        <v>2013</v>
-      </c>
-      <c r="B141">
+        <v>7718532879</v>
+      </c>
+      <c r="B141" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141">
+        <v>2013</v>
+      </c>
+      <c r="D141">
         <v>74</v>
       </c>
-      <c r="C141">
+      <c r="E141">
         <v>77</v>
       </c>
-      <c r="D141" t="s">
-        <v>160</v>
-      </c>
-      <c r="E141">
-        <v>7718532879</v>
-      </c>
       <c r="F141" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -10999,22 +10999,22 @@
     </row>
     <row r="142" spans="1:23">
       <c r="A142">
-        <v>2013</v>
-      </c>
-      <c r="B142">
+        <v>7717665234</v>
+      </c>
+      <c r="B142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C142">
+        <v>2013</v>
+      </c>
+      <c r="D142">
         <v>74</v>
       </c>
-      <c r="C142">
+      <c r="E142">
         <v>77</v>
       </c>
-      <c r="D142" t="s">
-        <v>161</v>
-      </c>
-      <c r="E142">
-        <v>7717665234</v>
-      </c>
       <c r="F142" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -11070,22 +11070,22 @@
     </row>
     <row r="143" spans="1:23">
       <c r="A143">
-        <v>2013</v>
-      </c>
-      <c r="B143">
+        <v>4027083322</v>
+      </c>
+      <c r="B143" t="s">
+        <v>48</v>
+      </c>
+      <c r="C143">
+        <v>2013</v>
+      </c>
+      <c r="D143">
         <v>74</v>
       </c>
-      <c r="C143">
+      <c r="E143">
         <v>40</v>
       </c>
-      <c r="D143" t="s">
-        <v>162</v>
-      </c>
-      <c r="E143">
-        <v>4027083322</v>
-      </c>
       <c r="F143" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G143">
         <v>6.9</v>
@@ -11141,22 +11141,22 @@
     </row>
     <row r="144" spans="1:23">
       <c r="A144">
-        <v>2013</v>
-      </c>
-      <c r="B144">
+        <v>7328063237</v>
+      </c>
+      <c r="B144" t="s">
+        <v>46</v>
+      </c>
+      <c r="C144">
+        <v>2013</v>
+      </c>
+      <c r="D144">
         <v>74</v>
       </c>
-      <c r="C144">
+      <c r="E144">
         <v>73</v>
       </c>
-      <c r="D144" t="s">
-        <v>163</v>
-      </c>
-      <c r="E144">
-        <v>7328063237</v>
-      </c>
       <c r="F144" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G144">
         <v>1.6</v>
@@ -11212,22 +11212,22 @@
     </row>
     <row r="145" spans="1:23">
       <c r="A145">
-        <v>2013</v>
-      </c>
-      <c r="B145">
+        <v>7722787661</v>
+      </c>
+      <c r="B145" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145">
+        <v>2013</v>
+      </c>
+      <c r="D145">
         <v>74</v>
       </c>
-      <c r="C145">
+      <c r="E145">
         <v>77</v>
       </c>
-      <c r="D145" t="s">
-        <v>164</v>
-      </c>
-      <c r="E145">
-        <v>7722787661</v>
-      </c>
       <c r="F145" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G145">
         <v>0.1</v>
@@ -11283,22 +11283,22 @@
     </row>
     <row r="146" spans="1:23">
       <c r="A146">
-        <v>2013</v>
-      </c>
-      <c r="B146">
+        <v>2130001337</v>
+      </c>
+      <c r="B146" t="s">
+        <v>31</v>
+      </c>
+      <c r="C146">
+        <v>2013</v>
+      </c>
+      <c r="D146">
         <v>74</v>
       </c>
-      <c r="C146">
+      <c r="E146">
         <v>21</v>
       </c>
-      <c r="D146" t="s">
-        <v>165</v>
-      </c>
-      <c r="E146">
-        <v>2130001337</v>
-      </c>
       <c r="F146" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -11354,22 +11354,22 @@
     </row>
     <row r="147" spans="1:23">
       <c r="A147">
-        <v>2013</v>
-      </c>
-      <c r="B147">
+        <v>7702347870</v>
+      </c>
+      <c r="B147" t="s">
+        <v>39</v>
+      </c>
+      <c r="C147">
+        <v>2013</v>
+      </c>
+      <c r="D147">
         <v>74</v>
       </c>
-      <c r="C147">
+      <c r="E147">
         <v>77</v>
       </c>
-      <c r="D147" t="s">
-        <v>166</v>
-      </c>
-      <c r="E147">
-        <v>7702347870</v>
-      </c>
       <c r="F147" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G147">
         <v>49.2</v>
@@ -11425,22 +11425,22 @@
     </row>
     <row r="148" spans="1:23">
       <c r="A148">
-        <v>2013</v>
-      </c>
-      <c r="B148">
+        <v>7708624200</v>
+      </c>
+      <c r="B148" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148">
+        <v>2013</v>
+      </c>
+      <c r="D148">
         <v>74</v>
       </c>
-      <c r="C148">
+      <c r="E148">
         <v>77</v>
       </c>
-      <c r="D148" t="s">
-        <v>167</v>
-      </c>
-      <c r="E148">
-        <v>7708624200</v>
-      </c>
       <c r="F148" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -11496,22 +11496,22 @@
     </row>
     <row r="149" spans="1:23">
       <c r="A149">
-        <v>2013</v>
-      </c>
-      <c r="B149">
+        <v>7731644035</v>
+      </c>
+      <c r="B149" t="s">
+        <v>41</v>
+      </c>
+      <c r="C149">
+        <v>2013</v>
+      </c>
+      <c r="D149">
         <v>74</v>
       </c>
-      <c r="C149">
+      <c r="E149">
         <v>77</v>
       </c>
-      <c r="D149" t="s">
-        <v>168</v>
-      </c>
-      <c r="E149">
-        <v>7731644035</v>
-      </c>
       <c r="F149" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -11567,22 +11567,22 @@
     </row>
     <row r="150" spans="1:23">
       <c r="A150">
-        <v>2013</v>
-      </c>
-      <c r="B150">
+        <v>2310106385</v>
+      </c>
+      <c r="B150" t="s">
+        <v>39</v>
+      </c>
+      <c r="C150">
+        <v>2013</v>
+      </c>
+      <c r="D150">
         <v>85</v>
       </c>
-      <c r="C150">
+      <c r="E150">
         <v>23</v>
       </c>
-      <c r="D150" t="s">
-        <v>169</v>
-      </c>
-      <c r="E150">
-        <v>2310106385</v>
-      </c>
       <c r="F150" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -11638,22 +11638,22 @@
     </row>
     <row r="151" spans="1:23">
       <c r="A151">
-        <v>2013</v>
-      </c>
-      <c r="B151">
+        <v>6312034863</v>
+      </c>
+      <c r="B151" t="s">
+        <v>39</v>
+      </c>
+      <c r="C151">
+        <v>2013</v>
+      </c>
+      <c r="D151">
         <v>85</v>
       </c>
-      <c r="C151">
+      <c r="E151">
         <v>63</v>
       </c>
-      <c r="D151" t="s">
-        <v>170</v>
-      </c>
-      <c r="E151">
-        <v>6312034863</v>
-      </c>
       <c r="F151" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G151">
         <v>0.8</v>
@@ -11709,22 +11709,22 @@
     </row>
     <row r="152" spans="1:23">
       <c r="A152">
-        <v>2013</v>
-      </c>
-      <c r="B152">
+        <v>2319008223</v>
+      </c>
+      <c r="B152" t="s">
+        <v>39</v>
+      </c>
+      <c r="C152">
+        <v>2013</v>
+      </c>
+      <c r="D152">
         <v>85</v>
       </c>
-      <c r="C152">
+      <c r="E152">
         <v>23</v>
       </c>
-      <c r="D152" t="s">
-        <v>171</v>
-      </c>
-      <c r="E152">
-        <v>2319008223</v>
-      </c>
       <c r="F152" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G152">
         <v>0.3</v>
@@ -11780,22 +11780,22 @@
     </row>
     <row r="153" spans="1:23">
       <c r="A153">
-        <v>2013</v>
-      </c>
-      <c r="B153">
+        <v>2317010611</v>
+      </c>
+      <c r="B153" t="s">
+        <v>39</v>
+      </c>
+      <c r="C153">
+        <v>2013</v>
+      </c>
+      <c r="D153">
         <v>85</v>
       </c>
-      <c r="C153">
+      <c r="E153">
         <v>23</v>
       </c>
-      <c r="D153" t="s">
-        <v>172</v>
-      </c>
-      <c r="E153">
-        <v>2317010611</v>
-      </c>
       <c r="F153" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G153">
         <v>0.3</v>
@@ -11851,22 +11851,22 @@
     </row>
     <row r="154" spans="1:23">
       <c r="A154">
-        <v>2013</v>
-      </c>
-      <c r="B154">
+        <v>7830002705</v>
+      </c>
+      <c r="B154" t="s">
+        <v>37</v>
+      </c>
+      <c r="C154">
+        <v>2013</v>
+      </c>
+      <c r="D154">
         <v>90</v>
       </c>
-      <c r="C154">
+      <c r="E154">
         <v>78</v>
       </c>
-      <c r="D154" t="s">
-        <v>173</v>
-      </c>
-      <c r="E154">
-        <v>7830002705</v>
-      </c>
       <c r="F154" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G154">
         <v>0.2</v>
@@ -11922,22 +11922,22 @@
     </row>
     <row r="155" spans="1:23">
       <c r="A155">
-        <v>2013</v>
-      </c>
-      <c r="B155">
+        <v>7717163097</v>
+      </c>
+      <c r="B155" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155">
+        <v>2013</v>
+      </c>
+      <c r="D155">
         <v>92</v>
       </c>
-      <c r="C155">
+      <c r="E155">
         <v>77</v>
       </c>
-      <c r="D155" t="s">
-        <v>174</v>
-      </c>
-      <c r="E155">
-        <v>7717163097</v>
-      </c>
       <c r="F155" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="G155">
         <v>0.2</v>
@@ -11993,22 +11993,22 @@
     </row>
     <row r="156" spans="1:23">
       <c r="A156">
-        <v>2013</v>
-      </c>
-      <c r="B156">
+        <v>7734046851</v>
+      </c>
+      <c r="B156" t="s">
+        <v>48</v>
+      </c>
+      <c r="C156">
+        <v>2013</v>
+      </c>
+      <c r="D156">
         <v>92</v>
       </c>
-      <c r="C156">
+      <c r="E156">
         <v>77</v>
       </c>
-      <c r="D156" t="s">
-        <v>175</v>
-      </c>
-      <c r="E156">
-        <v>7734046851</v>
-      </c>
       <c r="F156" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G156">
         <v>3.5</v>
@@ -12063,299 +12063,299 @@
       </c>
     </row>
     <row r="157" spans="1:23">
-      <c r="E157">
+      <c r="A157">
         <v>2902059091</v>
       </c>
-      <c r="F157" t="s">
-        <v>194</v>
+      <c r="B157" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="158" spans="1:23">
-      <c r="E158">
+      <c r="A158">
         <v>7713591359</v>
       </c>
-      <c r="F158" t="s">
-        <v>181</v>
+      <c r="B158" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:23">
-      <c r="E159">
+      <c r="A159">
         <v>262016287</v>
       </c>
-      <c r="F159" t="s">
-        <v>194</v>
+      <c r="B159" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:23">
-      <c r="E160">
+      <c r="A160">
         <v>7727560086</v>
       </c>
-      <c r="F160" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="161" spans="5:6">
-      <c r="E161">
+      <c r="B160" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
         <v>7718571010</v>
       </c>
-      <c r="F161" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="162" spans="5:6">
-      <c r="E162">
+      <c r="B161" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
         <v>7710646874</v>
       </c>
-      <c r="F162" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="163" spans="5:6">
-      <c r="E163">
+      <c r="B162" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
         <v>7701641245</v>
       </c>
-      <c r="F163" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="164" spans="5:6">
-      <c r="E164">
+      <c r="B163" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
         <v>5010032360</v>
       </c>
-      <c r="F164" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="165" spans="5:6">
-      <c r="E165">
+      <c r="B164" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
         <v>5032178356</v>
       </c>
-      <c r="F165" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="166" spans="5:6">
-      <c r="E166">
+      <c r="B165" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
         <v>7707327050</v>
       </c>
-      <c r="F166" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="167" spans="5:6">
-      <c r="E167">
+      <c r="B166" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
         <v>7729355614</v>
       </c>
-      <c r="F167" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="168" spans="5:6">
-      <c r="E168">
+      <c r="B167" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
         <v>1616016850</v>
       </c>
-      <c r="F168" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="169" spans="5:6">
-      <c r="E169">
+      <c r="B168" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
         <v>3013015987</v>
       </c>
-      <c r="F169" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="170" spans="5:6">
-      <c r="E170">
+      <c r="B169" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
         <v>7801435581</v>
       </c>
-      <c r="F170" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="171" spans="5:6">
-      <c r="E171">
+      <c r="B170" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
         <v>7802375335</v>
       </c>
-      <c r="F171" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="172" spans="5:6">
-      <c r="E172">
+      <c r="B171" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
         <v>7105514574</v>
       </c>
-      <c r="F172" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="173" spans="5:6">
-      <c r="E173">
+      <c r="B172" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
         <v>3917016350</v>
       </c>
-      <c r="F173" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="174" spans="5:6">
-      <c r="E174">
+      <c r="B173" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
         <v>6453076256</v>
       </c>
-      <c r="F174" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="175" spans="5:6">
-      <c r="E175">
+      <c r="B174" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
         <v>5032208554</v>
       </c>
-      <c r="F175" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="176" spans="5:6">
-      <c r="E176">
+      <c r="B175" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
         <v>7705514093</v>
       </c>
-      <c r="F176" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="177" spans="5:6">
-      <c r="E177">
+      <c r="B176" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
         <v>7702326045</v>
       </c>
-      <c r="F177" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="178" spans="5:6">
-      <c r="E178">
+      <c r="B177" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
         <v>7842012360</v>
       </c>
-      <c r="F178" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="179" spans="5:6">
-      <c r="E179">
+      <c r="B178" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
         <v>7702334864</v>
       </c>
-      <c r="F179" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="5:6">
-      <c r="E180">
+      <c r="B179" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
         <v>7714175986</v>
       </c>
-      <c r="F180" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="181" spans="5:6">
-      <c r="E181">
+      <c r="B180" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
         <v>7740000090</v>
       </c>
-      <c r="F181" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="182" spans="5:6">
-      <c r="E182">
+      <c r="B181" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
         <v>7714016680</v>
       </c>
-      <c r="F182" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="183" spans="5:6">
-      <c r="E183">
+      <c r="B182" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
         <v>66886637</v>
       </c>
-      <c r="F183" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="184" spans="5:6">
-      <c r="E184">
+      <c r="B183" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
         <v>79384883</v>
       </c>
-      <c r="F184" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="185" spans="5:6">
-      <c r="E185">
+      <c r="B184" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
         <v>57126933</v>
       </c>
-      <c r="F185" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="186" spans="5:6">
-      <c r="E186">
+      <c r="B185" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
         <v>231515</v>
       </c>
-      <c r="F186" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="187" spans="5:6">
-      <c r="E187">
+      <c r="B186" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
         <v>98927243</v>
       </c>
-      <c r="F187" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="188" spans="5:6">
-      <c r="E188">
+      <c r="B187" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
         <v>95653259</v>
       </c>
-      <c r="F188" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="189" spans="5:6">
-      <c r="E189">
+      <c r="B188" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
         <v>95651148</v>
       </c>
-      <c r="F189" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="190" spans="5:6">
-      <c r="E190">
+      <c r="B189" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
         <v>450100814</v>
       </c>
-      <c r="F190" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="191" spans="5:6">
-      <c r="E191">
+      <c r="B190" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
         <v>7610052644</v>
       </c>
-      <c r="F191" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="192" spans="5:6">
-      <c r="E192">
+      <c r="B191" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192">
         <v>7303026762</v>
       </c>
-      <c r="F192" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="193" spans="5:6">
-      <c r="E193">
+      <c r="B192" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193">
         <v>7703782636</v>
       </c>
-      <c r="F193" t="s">
-        <v>198</v>
+      <c r="B193" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
